--- a/research_dep.xlsx
+++ b/research_dep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livereadingac-my.sharepoint.com/personal/mi926275_reading_ac_uk/Documents/2) Self_Dev/) StillMind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{2AE6D6FF-0500-0748-8587-64005D839952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4CA7095-6153-944B-B47A-AF4211017E46}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{2AE6D6FF-0500-0748-8587-64005D839952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766E5C17-5936-BA40-8E24-C75E8866F5DD}"/>
   <bookViews>
     <workbookView xWindow="6260" yWindow="780" windowWidth="27860" windowHeight="20280" xr2:uid="{6BDADD65-ACA1-6C47-AAF7-F26B051AF62E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>mobile games; swipe gesture; anxiety; depression; mental health; game data; screening</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>keywordslowcase</t>
@@ -92,13 +89,26 @@
   </si>
   <si>
     <t>Limitations</t>
+  </si>
+  <si>
+    <t>Effective Components of Collaborative Care for Depression in Primary Care: An Individual Participant Data Meta-Analysis</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.com/journals/jamapsychiatry/fullarticle/2831899?guestAccessKey=30176fe4-bec0-4464-ab55-347685f654ac&amp;utm_source=twitter&amp;utm_medium=social_jamapsyc&amp;utm_term=18056008058&amp;utm_campaign=article_alert&amp;linkId=857239341</t>
+  </si>
+  <si>
+    <t>Schillok H, Gensichen J, Panagioti M, Gunn J, Junker L, Lukaschek K, Jung-Sievers C, Sterner P, Kaupe L, Dreischulte T, Ali MK, Aragonès E, Bekelman DB, Herbeck Belnap B, Carney RM, Chwastiak LA, Coventry PA, Davidson KW, Ekstrand ML, Flehr A, Fletcher S, Hölzel LP, Huijbregts K, Mohan V, Patel V, Richards DA, Rollman BL, Salisbury C, Simon GE, Srinivasan K, Unützer J, van der Feltz-Cornelis CM, Wells KB, Zimmermann T, Bühner M; POKAL Group</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;*Interesting*.&lt;/b&gt; Compared to usual care, those in collaborative care experienced lower depression symptoms over the 30 months after baseline. However, symptoms both converged and increase in both groups. &lt;br&gt;
+&lt;b&gt;Must check what this implies in the meta-analysis.&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +133,18 @@
       <sz val="12"/>
       <color rgb="FF1A254C"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212121"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -152,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -174,6 +196,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA0E219-491F-9B48-AB3D-0B2981228E82}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,10 +554,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -541,13 +569,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -570,11 +598,9 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="76" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -596,11 +622,27 @@
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
